--- a/data/jfx_required_test.xlsx
+++ b/data/jfx_required_test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EB35CC-4BF3-1945-8F6F-D1BD05F8D2A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E73FC5-0842-B947-A694-5E9B18F36869}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="660" windowWidth="27040" windowHeight="16160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="660" windowWidth="27040" windowHeight="16160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
+    <sheet name="credit" sheetId="1" r:id="rId1"/>
     <sheet name="test_project" sheetId="4" r:id="rId2"/>
     <sheet name="project_null" sheetId="5" r:id="rId3"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="248">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,59 +479,6 @@
   </si>
   <si>
     <t>进件接口-缺少必填项-financeChannel</t>
-  </si>
-  <si>
-    <t>{
-	"sourceCode": "jfx",
-	"sourceUserId": "929",
-	"transactionId": "010203",
-	"serviceSn": "1923",
-	"applyInfo": {
-		"applyTime": "2019-01-01 01:01:01",
-		"productGroup": "1099",
-		"applySource": "api",
-		"financeChannel": 1
-	},
-	"personalInfo": {
-		"cardNum": "420101198703124023",
-		"custName": "张三",
-		"phone": "15555555555",
-		"sex": 0,
-		"age": 25,
-		"fourVerifyResult": 1,
-		"liveAddressProvince": "110000",
-		"liveAddressCity": "110100",
-		"liveAddressBorough": "110105",
-		"liveDetailAddress": "北京市",
-		"applicantClinicRelationship": 1,
-		"isDoctor": 1
-	},
-	"bindingCardInfo": {
-		"bankCode": "34",
-		"bankNameSub": "建设银行",
-		"bankCardNo": "6217002200003225701",
-		"bankCardAccountType": 0,
-		"bankPhone": "15022222222"
-	},
-	"contactInfo": {
-		"firstContactRelationship": 2,
-		"firstContactName": "王二",
-		"firstContactPhone": "13444442222"
-	},
-	"entityInfo": {
-		"clinicName": "好不了牙科诊所",
-		"manageAddressProvince": "110000",
-		"manageAddressCity": "110100",
-		"manageAddressBorough": "110105",
-		"manageDetailAddress": "北京市"
-	},
-	"imageInfo": {
-		"frontPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190703/213be8a9118d46978208d7f8c5eefa50.jpeg",
-		"backPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190711/c8fb8a8d370b4c1eb03e1c5cc0cc95a8.jpeg",
-		"livingVerificationScreenshot": "http://www.99danji.com/uploadfile/2015/0921/20150921103659839.png",
-		"medicalPracticeCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180901/85cf11b2b21c4bbd836eab3d966477cc.jpeg"
-	}
-}</t>
   </si>
   <si>
     <t>{
@@ -8275,6 +8222,165 @@
 	},
 	"imageInfo": {
 		"salesContractImage": "http://gss0.baidu.com/94o3dSag_xI4khGko9WTAnF6hhy/zhidao/pic/item/64380cd7912397dd712239dc5e82b2b7d1a2878b.jpg"
+	}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"sourceCode": "jkjr",
+	"channel": "jkjr",
+	"sourceUserId": "1234567890000",
+	"transactionId": "1234567890000",
+	"serviceSn": "1234567890000",
+	"creditInfo": {
+		"sourceCreditAmt": 300000,
+		"sourceCreditRate": 0.120000,
+		"auditResult": 1
+	},
+	"applyInfo": {
+		"applyTime": "2020-05-06 12:30:30",
+		"productGroup": 1121,
+		"applySource": "api",
+		"financeChannel": 1
+	},
+	"personalInfo": {
+		"custName": "张三",
+		"cardNum": "110100199010010001",
+		"phone": "13800138001",
+		"sex": "M",
+		"age": 25,
+		"maritalStatus": 1,
+		"hasChildren": "Y",
+		"fourVerifyResult": "Y",
+		"liveAddressProvince": "110100",
+		"liveAddressCity": "110100",
+		"liveAddressBorough": "110500",
+		"liveDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
+		"personalEmail": "zhangsan@test.com",
+		"cardValidDate": "2029-12-10-9999-09-09",
+		"position": 1,
+		"professionalTitle": 1,
+		"isLocalRigster": "Y",
+		"personalPurchaseHouse": 1,
+		"livingYear": 1,
+		"applicantClinicRelationship": 1,
+		"isDoctor": 1,
+		"workingYear": 5,
+		"isHighRiskArea": "Y",
+		"faceRecognition": "Y",
+		"identityCheckResult": "Y",
+		"monthIncome": 5,
+		"monthIncomeDetail": "5000",
+		"creditIsEmpty": "Y",
+		"creditTotalOverdueTimes": 1,
+		"creditTotalOverdueDays": 10,
+		"creditIsOverdue": "Y",
+		"isExistInCreditRepo": "0",
+		"allCreditRepoQueryTimes": 1,
+		"afterLoanCreditRepoQueryTimes": 1,
+		"creditRepoForCreditApproveQueryTimes": 1,
+		"creditRepoForLoanApprovedQueryTimes": 1,
+		"creditRepoForCreditCardApprovedQueryTimes": 1
+	},
+	"bindingCardInfo": {
+		"bankCode": "86",
+		"bankNameSub": "招商银行北京分行",
+		"bankCardNo": "6214888888888888888",
+		"bankCardAccountType": 0,
+		"bankPhone": "13800138001"
+	},
+	"contactInfo": {
+		"spouseName": "李四",
+		"spousePhone": "13800138003",
+		"spouseCardNum": "110100199010010002",
+		"firstContactCardNum": "110100199010010002",
+		"firstContactRelationship": 2,
+		"firstContactName": "李四",
+		"firstContactPhone": "13800138002"
+	},
+	"entityInfo": {
+		"manageAddressProvince": "110100",
+		"manageAddressCity": "110100",
+		"manageAddressBorough": "110500",
+		"manageDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
+		"isChangeForLegalPerson": 1,
+		"clinicName": "诊所名称",
+		"isRequiredApplyLicense": "Y",
+		"unifiedSocialCreditCode": "XXX",
+		"permitRegistrationNumber": "84819923",
+		"hospitalCategory": 1,
+		"isThreeCertificatesInOne": "Y",
+		"corpType": 1,
+		"registeredAssets": 100.05,
+		"isAddressConsistent": "Y",
+		"registerAddressProvince": "110100",
+		"registerAddressCity": "110100",
+		"registerAddressBorough": "110500",
+		"registerDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
+		"cityGrading": 1,
+		"businessLicenseValidDate": "2029-12-10-9999-09-09",
+		"openingDate": "yyyy-MM-dd",
+		"establishYears": 3,
+		"oldLegalPersonName": "原法人",
+		"isChainInstitution": "Y",
+		"chainInstitutionNumber": 2,
+		"brandName": "品牌名称",
+		"annualRunningWater": 10.11,
+		"operateSiteOwnership": 1,
+		"legalPersonName": "法人",
+		"legalPersonIdcard": "110100199010010002",
+		"legalPersonPhone": "13800138002",
+		"decorateGrade": 1,
+		"locationGrade": 1,
+		"authorisedRepresentative": 1,
+		"legalPersonPhoneRealName": "Y",
+		"isSamePersonForProprietorAndLegal": "Y",
+		"proprietorRealName": "实际经营者",
+		"proprietorRealIdCardNo": "123456789000000000",
+		"proprietorRealPhone": "12345678900",
+		"proprietorIsPhoneRealName": "Y",
+		"isSamePersonForLegalAndContact": "Y",
+		"isSamePersonForProprietorContact": "Y",
+		"contactName": "联系人",
+		"contactIdCardNo": "372301199509074811",
+		"contactPhone": "12345678900",
+		"legalPersonIsDoctor": 1,
+		"proprietorIsDoctor": 1,
+		"isFieldTrip": "Y",
+		"accessWay": "1",
+		"supplierName": "供应商1,供应商2",
+		"floorSpace": 21.55,
+		"staffOnActiveDutyNum": 1,
+		"havePromotionActivity": 1,
+		"clinicMaxOverdueDays": 1,
+		"clinicOverdueTimesMoreThan5": 1,
+		"clinicFirstLoanTime": "2021-02-24 00:00:00",
+		"clinicTotalLoanCount": 1,
+		"clinicTotalLoanAmount": 100.55,
+		"clinicInLoanAmount": 100.55,
+		"clinicCurrentOverdueAmount": 100.55,
+		"clinicCurrentOverdueCount": 1,
+		"clinicCurrentOverdueDays": 1,
+		"clinicHistoryOverdueDays": 1,
+		"clinicTotalOverdueTimes": 1,
+		"clincTotalSettleCount": 1
+	},
+	"imageInfo": {
+		"frontPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190703/213be8a9118d46978208d7f8c5eefa50.jpeg",
+		"backPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190711/c8fb8a8d370b4c1eb03e1c5cc0cc95a8.jpeg",
+		"livingVerificationScreenshot": "http://www.99danji.com/uploadfile/2015/0921/20150921103659839.png",
+		"graduationCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20170823/6c785864112d4345b55e4cea2b13c74b.jpg",
+		"propertyCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180203/f052f7850d954d7894961aec83d964d1.jpeg",
+		"imageForCreditRepo": "https://th.bing.com/th/id/Rb1107168a1f2b01c6f891acad73b965a?rik=4I6hZDM5GCxlmA&amp;riu=http%3a%2f%2fimage1.ljcdn.com%2fneirong-image%2fneirong1488766346phpnsYcBH.jpeg&amp;ehk=dS5DkqaLtODvcQWzYGBGVmPssVgt3BHoT3OPYqymJKo%3d&amp;risl=&amp;pid=ImgRaw",
+		"medicalPracticeCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180901/85cf11b2b21c4bbd836eab3d966477cc.jpeg",
+		"shareholderCertificate": "https://img.tukuppt.com/preview/word/22533-5fa9fb2626caf1604975398.jpg-0.jpg!/fw/780/quality/90/unsharp/true/compress/true",
+		"medicalInstitutionLicense": "https://tse2-mm.cn.bing.net/th/id/OIP.HPLH2JALyYRkn61vpvPpsAHaFZ?pid=ImgDet&amp;rs=1",
+		"businessLicense": "http://baoliao.oeeee.com/upload/2/2014-0/650XH/62df72e8-a41a-4386-973b-f8b93e98d8f0.jpg",
+		"enterpriseEnvironment": "https://th.bing.com/th/id/Re5d8c49cbd3a02de7b984e2c8463d5ed?rik=rMJIVSGbGKPmJg&amp;riu=http%3a%2f%2fwww.zdmd.com.cn%2fupload%2f2016-4%2f2016041951847793.JPG&amp;ehk=m7iZRhOvjOe7F7Bk3jWZUTAZkZgfc2h6GezK4VMbOsc%3d&amp;risl=&amp;pid=ImgRaw",
+		"enterpriseDoorLicense": "https://th.bing.com/th/id/R41328786f6a0726c76af97c1cec14339?rik=qWkOEH8KWDCRaQ&amp;riu=http%3a%2f%2fwww.68sign.com%2fupload%2fproducts%2fsignage%2f68sign.com-2012102119397481.jpg&amp;ehk=9B%2bG8hnoArRXTkhnD5gHWrbaO00NHn3ghFK%2fzY9njeY%3d&amp;risl=&amp;pid=ImgRaw",
+		"enterpriseFacadePhotos": "https://image2.znzmo.com/JkrEi44k7M.jpg?x-oss-process=style/detail",
+		"consultationRoomPhotos": "https://img.zcool.cn/community/01b9a25c39ab32a80121fbb06c85c4.jpg@1280w_1l_2o_100sh.jpg"
 	}
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8692,8 +8798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K187"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8702,7 +8808,7 @@
     <col min="2" max="2" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="63.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="16.5" style="1" bestFit="1" customWidth="1"/>
@@ -8745,7 +8851,7 @@
         <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -8757,17 +8863,12 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
@@ -8780,17 +8881,12 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
@@ -8800,17 +8896,12 @@
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -8820,17 +8911,12 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
@@ -8840,17 +8926,12 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
@@ -8858,19 +8939,14 @@
     </row>
     <row r="8" spans="1:11" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
@@ -8880,17 +8956,12 @@
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
@@ -8900,17 +8971,12 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
@@ -8920,17 +8986,12 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
@@ -8940,17 +9001,12 @@
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
@@ -8960,17 +9016,12 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
@@ -8980,17 +9031,12 @@
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
@@ -9000,17 +9046,12 @@
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
@@ -9020,17 +9061,12 @@
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
@@ -9040,17 +9076,12 @@
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
@@ -9060,17 +9091,12 @@
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
@@ -9080,17 +9106,12 @@
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
@@ -9100,17 +9121,12 @@
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
@@ -9120,17 +9136,12 @@
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
@@ -9140,17 +9151,12 @@
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
@@ -9160,17 +9166,12 @@
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
@@ -9180,17 +9181,12 @@
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
@@ -9200,17 +9196,12 @@
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
@@ -9220,17 +9211,12 @@
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
@@ -9240,17 +9226,12 @@
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
@@ -9260,17 +9241,12 @@
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
@@ -9280,17 +9256,12 @@
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
@@ -9300,17 +9271,12 @@
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
@@ -9320,17 +9286,12 @@
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
@@ -9340,17 +9301,12 @@
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
@@ -9360,17 +9316,12 @@
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
@@ -9380,17 +9331,12 @@
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
@@ -9400,17 +9346,12 @@
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
@@ -9420,17 +9361,12 @@
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
@@ -9440,17 +9376,12 @@
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
@@ -9460,17 +9391,12 @@
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
@@ -9480,17 +9406,12 @@
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
@@ -10143,7 +10064,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -10151,7 +10072,7 @@
     </row>
     <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -10161,10 +10082,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -10179,7 +10100,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -10197,7 +10118,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -10215,7 +10136,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -10233,7 +10154,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
@@ -10251,7 +10172,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
@@ -10269,7 +10190,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>12</v>
@@ -10287,7 +10208,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -10305,7 +10226,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
@@ -10313,7 +10234,7 @@
     </row>
     <row r="12" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -10323,7 +10244,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -10341,7 +10262,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
@@ -10359,7 +10280,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>12</v>
@@ -10377,7 +10298,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>12</v>
@@ -10395,7 +10316,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>12</v>
@@ -10413,7 +10334,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>12</v>
@@ -10431,7 +10352,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>12</v>
@@ -10449,7 +10370,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>12</v>
@@ -10467,7 +10388,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>12</v>
@@ -10485,7 +10406,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>12</v>
@@ -10503,7 +10424,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>12</v>
@@ -10521,7 +10442,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>12</v>
@@ -10539,7 +10460,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>12</v>
@@ -10557,7 +10478,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>12</v>
@@ -10575,7 +10496,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>12</v>
@@ -10593,7 +10514,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>12</v>
@@ -10611,7 +10532,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>12</v>
@@ -10629,7 +10550,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>12</v>
@@ -10647,7 +10568,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>12</v>
@@ -10665,7 +10586,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>12</v>
@@ -10683,7 +10604,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>12</v>
@@ -10691,7 +10612,7 @@
     </row>
     <row r="33" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
@@ -10701,7 +10622,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>12</v>
@@ -10719,7 +10640,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>12</v>
@@ -10737,7 +10658,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>12</v>
@@ -10755,7 +10676,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>12</v>
@@ -10773,7 +10694,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>12</v>
@@ -10791,7 +10712,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>12</v>
@@ -10809,7 +10730,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>12</v>
@@ -10827,7 +10748,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>12</v>
@@ -10845,7 +10766,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>12</v>
@@ -10863,7 +10784,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>12</v>
@@ -10881,7 +10802,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>12</v>
@@ -10899,7 +10820,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>12</v>
@@ -10917,7 +10838,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>12</v>
@@ -10935,7 +10856,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>12</v>
@@ -10953,7 +10874,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>12</v>
@@ -10971,7 +10892,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>12</v>
@@ -10989,7 +10910,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>12</v>
@@ -11007,7 +10928,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>12</v>
@@ -11025,7 +10946,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>12</v>
@@ -11043,7 +10964,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>12</v>
@@ -11061,7 +10982,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>12</v>
@@ -11079,7 +11000,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>12</v>
@@ -11097,7 +11018,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>12</v>
@@ -11115,7 +11036,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>12</v>
@@ -11133,7 +11054,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>12</v>
@@ -11151,7 +11072,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>12</v>
@@ -11169,7 +11090,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>12</v>
@@ -11187,7 +11108,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>12</v>
@@ -11205,7 +11126,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>12</v>
@@ -11223,7 +11144,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>12</v>
@@ -11241,7 +11162,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>12</v>
@@ -11259,7 +11180,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>12</v>
@@ -11277,7 +11198,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>12</v>
@@ -11285,7 +11206,7 @@
     </row>
     <row r="66" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>10</v>
@@ -11295,10 +11216,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
@@ -11895,8 +11816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202B2E43-D323-F34D-9A60-A200582E300F}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11929,7 +11850,7 @@
     </row>
     <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -11938,7 +11859,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2">
         <v>4005</v>
@@ -11946,7 +11867,7 @@
     </row>
     <row r="3" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -11960,7 +11881,7 @@
     </row>
     <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -11974,7 +11895,7 @@
     </row>
     <row r="5" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -11988,7 +11909,7 @@
     </row>
     <row r="6" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -12002,7 +11923,7 @@
     </row>
     <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -12016,7 +11937,7 @@
     </row>
     <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -12030,7 +11951,7 @@
     </row>
     <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -12044,7 +11965,7 @@
     </row>
     <row r="10" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -12058,7 +11979,7 @@
     </row>
     <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -12072,7 +11993,7 @@
     </row>
     <row r="12" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -12086,7 +12007,7 @@
     </row>
     <row r="13" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -12100,7 +12021,7 @@
     </row>
     <row r="14" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -12114,7 +12035,7 @@
     </row>
     <row r="15" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -12128,7 +12049,7 @@
     </row>
     <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -12142,7 +12063,7 @@
     </row>
     <row r="17" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -12156,7 +12077,7 @@
     </row>
     <row r="18" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -12170,7 +12091,7 @@
     </row>
     <row r="19" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -12184,7 +12105,7 @@
     </row>
     <row r="20" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
@@ -12198,7 +12119,7 @@
     </row>
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
@@ -12212,7 +12133,7 @@
     </row>
     <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -12226,7 +12147,7 @@
     </row>
     <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
@@ -12240,7 +12161,7 @@
     </row>
     <row r="24" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -12254,7 +12175,7 @@
     </row>
     <row r="25" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
@@ -12268,7 +12189,7 @@
     </row>
     <row r="26" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
@@ -12282,7 +12203,7 @@
     </row>
     <row r="27" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
@@ -12296,7 +12217,7 @@
     </row>
     <row r="28" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
@@ -12310,7 +12231,7 @@
     </row>
     <row r="29" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
@@ -12324,7 +12245,7 @@
     </row>
     <row r="30" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
@@ -12338,7 +12259,7 @@
     </row>
     <row r="31" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
@@ -12352,7 +12273,7 @@
     </row>
     <row r="32" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
@@ -12366,7 +12287,7 @@
     </row>
     <row r="33" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
@@ -12380,7 +12301,7 @@
     </row>
     <row r="34" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
@@ -12394,7 +12315,7 @@
     </row>
     <row r="35" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
@@ -12408,7 +12329,7 @@
     </row>
     <row r="36" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
@@ -12422,7 +12343,7 @@
     </row>
     <row r="37" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>

--- a/data/jfx_required_test.xlsx
+++ b/data/jfx_required_test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E73FC5-0842-B947-A694-5E9B18F36869}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D282CDF-F56C-F04B-A7D6-08764EBB14DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="660" windowWidth="27040" windowHeight="16160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="credit" sheetId="1" r:id="rId1"/>
+    <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
     <sheet name="test_project" sheetId="4" r:id="rId2"/>
     <sheet name="project_null" sheetId="5" r:id="rId3"/>
   </sheets>
@@ -8799,7 +8799,7 @@
   <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/jfx_required_test.xlsx
+++ b/data/jfx_required_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E003D6-B231-4A49-BF93-6D0038E04A96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9903EC88-7BC6-D140-82E4-DA8EEDCA64D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="500" windowWidth="24660" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15758,8 +15758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA402FE-2170-234C-BFCB-80F823858BAC}">
   <dimension ref="A1:F415"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20087,8 +20087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/data/jfx_required_test.xlsx
+++ b/data/jfx_required_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9903EC88-7BC6-D140-82E4-DA8EEDCA64D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5BF4FE-28F8-324D-9619-7ADE9D61FEDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="500" windowWidth="24660" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11765,10 +11765,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applyTerm=3,applyInfo.applicationPeriod=0,loanInfo.loanTerm=3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -11810,14 +11806,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applyTerm=3,loanInfo.loanTerm=3,loanInfo.cycleInterval=0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applicationPeriod=0,loanInfo.loanTerm=2,loanInfo.cycleInterval=0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -11859,10 +11847,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applyTerm=2,applyInfo.applicationPeriod=0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -13445,6 +13429,211 @@
         <family val="1"/>
       </rPr>
       <t>entityInfo.supplierAccessWay==11</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanUsageInfo.loanUsageInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanUsageInfo.totalAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanUsageInfo.allProductNumber</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanUsageInfo.date</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanUsageInfo.saleProductDetailList</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -13569,7 +13758,7 @@
       <t>",
     "phone": "15514390545",
     "education": 5,
-    "sex": 0,
+    "sex": "M",
     "age": 25,
     "maritalStatus": 2,
     "hasChildren": 0,
@@ -13946,208 +14135,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanUsageInfo.loanUsageInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanUsageInfo.totalAmount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanUsageInfo.allProductNumber</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanUsageInfo.date</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanUsageInfo.saleProductDetailList</t>
-    </r>
+    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applicationPeriod==0,loanInfo.loanTerm==2,loanInfo.cycleInterval==0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applyTerm==3,loanInfo.loanTerm==3,loanInfo.cycleInterval==0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applyTerm==2,applyInfo.applicationPeriod==0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applyTerm==3,applyInfo.applicationPeriod==0,loanInfo.loanTerm==3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -20087,8 +20087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20135,7 +20135,7 @@
         <v>65</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
@@ -20206,7 +20206,7 @@
         <v>321</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="C10" s="3">
         <v>4000</v>
@@ -20214,10 +20214,10 @@
     </row>
     <row r="11" spans="1:6" ht="60">
       <c r="A11" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="C11" s="3">
         <v>4000</v>
@@ -20327,7 +20327,7 @@
         <v>328</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="C23" s="3">
         <v>4000</v>
@@ -20335,10 +20335,10 @@
     </row>
     <row r="24" spans="1:3" ht="60">
       <c r="A24" s="22" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="C24" s="3">
         <v>4000</v>
@@ -20346,7 +20346,7 @@
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="3">
@@ -20355,7 +20355,7 @@
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="22" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="3">
@@ -20364,7 +20364,7 @@
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="22" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="3">
@@ -20373,7 +20373,7 @@
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="22" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="3">
@@ -20499,7 +20499,7 @@
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="22" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="3">
@@ -20796,7 +20796,7 @@
     </row>
     <row r="75" spans="1:3" ht="19">
       <c r="A75" s="22" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="3">
@@ -20805,7 +20805,7 @@
     </row>
     <row r="76" spans="1:3" ht="19">
       <c r="A76" s="22" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="3">
@@ -20814,7 +20814,7 @@
     </row>
     <row r="77" spans="1:3" ht="19">
       <c r="A77" s="22" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="3">
@@ -20823,7 +20823,7 @@
     </row>
     <row r="78" spans="1:3" ht="19">
       <c r="A78" s="22" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="3">
@@ -20832,7 +20832,7 @@
     </row>
     <row r="79" spans="1:3" ht="19">
       <c r="A79" s="22" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="3">
@@ -20841,7 +20841,7 @@
     </row>
     <row r="80" spans="1:3" ht="19">
       <c r="A80" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="3">
@@ -20850,7 +20850,7 @@
     </row>
     <row r="81" spans="1:3" ht="19">
       <c r="A81" s="22" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B81" s="18"/>
       <c r="C81" s="3">
@@ -20859,7 +20859,7 @@
     </row>
     <row r="82" spans="1:3" ht="19">
       <c r="A82" s="22" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="3">
@@ -20868,7 +20868,7 @@
     </row>
     <row r="83" spans="1:3" ht="19">
       <c r="A83" s="22" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B83" s="18"/>
       <c r="C83" s="3">
@@ -20877,7 +20877,7 @@
     </row>
     <row r="84" spans="1:3" ht="19">
       <c r="A84" s="22" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="3">
@@ -20886,7 +20886,7 @@
     </row>
     <row r="85" spans="1:3" ht="19">
       <c r="A85" s="22" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="3">
@@ -20895,7 +20895,7 @@
     </row>
     <row r="86" spans="1:3" ht="19">
       <c r="A86" s="22" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B86" s="18"/>
       <c r="C86" s="3">
@@ -20904,7 +20904,7 @@
     </row>
     <row r="87" spans="1:3" ht="19">
       <c r="A87" s="22" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="3">
@@ -20913,7 +20913,7 @@
     </row>
     <row r="88" spans="1:3" ht="19">
       <c r="A88" s="22" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="3">
@@ -20922,7 +20922,7 @@
     </row>
     <row r="89" spans="1:3" ht="19">
       <c r="A89" s="22" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B89" s="18"/>
       <c r="C89" s="3">
@@ -20931,7 +20931,7 @@
     </row>
     <row r="90" spans="1:3" ht="19">
       <c r="A90" s="22" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B90" s="18"/>
       <c r="C90" s="3">
@@ -20940,7 +20940,7 @@
     </row>
     <row r="91" spans="1:3" ht="19">
       <c r="A91" s="22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B91" s="18"/>
       <c r="C91" s="3">
@@ -20949,7 +20949,7 @@
     </row>
     <row r="92" spans="1:3" ht="19">
       <c r="A92" s="22" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B92" s="18"/>
       <c r="C92" s="3">
@@ -20958,7 +20958,7 @@
     </row>
     <row r="93" spans="1:3" ht="19">
       <c r="A93" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B93" s="18"/>
       <c r="C93" s="3">
@@ -20967,7 +20967,7 @@
     </row>
     <row r="94" spans="1:3" ht="19">
       <c r="A94" s="22" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="3">
@@ -20976,7 +20976,7 @@
     </row>
     <row r="95" spans="1:3" ht="19">
       <c r="A95" s="22" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="3">
@@ -21399,7 +21399,7 @@
     </row>
     <row r="142" spans="1:3" ht="19">
       <c r="A142" s="23" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B142" s="24"/>
       <c r="C142" s="25">
@@ -21408,7 +21408,7 @@
     </row>
     <row r="143" spans="1:3" ht="19">
       <c r="A143" s="23" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B143" s="24"/>
       <c r="C143" s="25">
@@ -21417,7 +21417,7 @@
     </row>
     <row r="144" spans="1:3" ht="19">
       <c r="A144" s="23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B144" s="24"/>
       <c r="C144" s="25">
@@ -21426,7 +21426,7 @@
     </row>
     <row r="145" spans="1:3" ht="19">
       <c r="A145" s="23" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B145" s="24"/>
       <c r="C145" s="25">
@@ -21435,7 +21435,7 @@
     </row>
     <row r="146" spans="1:3" ht="19">
       <c r="A146" s="23" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B146" s="24"/>
       <c r="C146" s="25">
@@ -21444,7 +21444,7 @@
     </row>
     <row r="147" spans="1:3" ht="19">
       <c r="A147" s="23" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B147" s="24"/>
       <c r="C147" s="25">
@@ -21453,7 +21453,7 @@
     </row>
     <row r="148" spans="1:3" ht="19">
       <c r="A148" s="23" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B148" s="24"/>
       <c r="C148" s="25">
@@ -21462,7 +21462,7 @@
     </row>
     <row r="149" spans="1:3" ht="19">
       <c r="A149" s="23" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B149" s="24"/>
       <c r="C149" s="25">
@@ -21471,7 +21471,7 @@
     </row>
     <row r="150" spans="1:3" ht="19">
       <c r="A150" s="23" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B150" s="24"/>
       <c r="C150" s="25">
@@ -21480,7 +21480,7 @@
     </row>
     <row r="151" spans="1:3" ht="19">
       <c r="A151" s="23" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B151" s="24"/>
       <c r="C151" s="25">
@@ -21489,7 +21489,7 @@
     </row>
     <row r="152" spans="1:3" ht="19">
       <c r="A152" s="23" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B152" s="24"/>
       <c r="C152" s="25">
@@ -21498,7 +21498,7 @@
     </row>
     <row r="153" spans="1:3" ht="19">
       <c r="A153" s="23" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B153" s="24"/>
       <c r="C153" s="25">
@@ -21552,7 +21552,7 @@
     </row>
     <row r="159" spans="1:3" ht="19">
       <c r="A159" s="16" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B159" s="19"/>
       <c r="C159" s="7">
@@ -21642,7 +21642,7 @@
     </row>
     <row r="169" spans="1:3" ht="19">
       <c r="A169" s="22" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B169" s="18"/>
       <c r="C169" s="3">
@@ -21651,7 +21651,7 @@
     </row>
     <row r="170" spans="1:3" ht="19">
       <c r="A170" s="22" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B170" s="18"/>
       <c r="C170" s="3">
@@ -21687,7 +21687,7 @@
     </row>
     <row r="174" spans="1:3" ht="19">
       <c r="A174" s="16" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B174" s="19"/>
       <c r="C174" s="7">
@@ -21696,7 +21696,7 @@
     </row>
     <row r="175" spans="1:3" ht="19">
       <c r="A175" s="16" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B175" s="19"/>
       <c r="C175" s="7">
@@ -21705,7 +21705,7 @@
     </row>
     <row r="176" spans="1:3" ht="19">
       <c r="A176" s="16" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B176" s="19"/>
       <c r="C176" s="7">
@@ -21714,7 +21714,7 @@
     </row>
     <row r="177" spans="1:3" ht="19">
       <c r="A177" s="16" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B177" s="19"/>
       <c r="C177" s="7">
@@ -21795,7 +21795,7 @@
     </row>
     <row r="186" spans="1:3" ht="19">
       <c r="A186" s="16" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B186" s="19"/>
       <c r="C186" s="7">

--- a/data/jfx_required_test.xlsx
+++ b/data/jfx_required_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5BF4FE-28F8-324D-9619-7ADE9D61FEDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7D0314-E441-6744-B67A-420766035F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="500" windowWidth="24660" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="376">
   <si>
     <t>casename</t>
   </si>
@@ -7359,252 +7359,6 @@
         <family val="1"/>
       </rPr>
       <t>entityInfo.legalPersonIdcard</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.totalAmount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.date</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.allProductNumber</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.unitPriceAmount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.productName</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.singleProductNumber</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -13638,516 +13392,173 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{
-  "channel": "jfx",
-  "sourceCode": "jfx",
-  "sourceUserId": "16471",
-  "transactionId": "Test5140123",
-  "sourceProjectId": "768523",
-  "applyInfo": {
-    "applyTime": "2020-08-04 14:58:11",
-    "applyAmount": 50000.0,
-    "applyTerm": 1,
-    "applicationPeriod": 60,
-    "productCode": "XJ_JFX_YYDSIN",
-    "applySource": "api",
-    "financeChannel": 1
-  },
-  "loanInfo": {
-    "loanAmount": 50000.0,
-    "loanTerm": 1,
-    "cycleInterval": 60,
-    "assetInterestRate": 0.14,
-    "assetInterestRatePeriod": 1,
-    "userInterestRate": 0.14,
-    "userInterestRatePeriod": 1,
-    "repayMethod": "OT"
-  },
-  "cardInfo": {
-    "accountProp": 1,
-    "bankCode": 34,
-    "bankNameSub": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建设银行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "bankCardNo": "6227002432220410613",
-    "bankCardAccountType": 0,
-    "bankPhone": 13500229191,
-    "openAccountProvince": "110000",
-    "openAccountCity": "110100",
-    "openAccountBankNameSub": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上地支行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "corporateAccountName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司公户名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "unifiedSocialCreditCode": "713455588851967"
-  },
-  "personalInfo": {
-    "cardNum": "420101196801146980",
-    "custName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>凌禹佳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "phone": "15514390545",
-    "education": 5,
-    "sex": "M",
-    "age": 25,
-    "maritalStatus": 2,
-    "hasChildren": 0,
-    "personalPurchaseHouse": 3,
-    "fourVerifyResult": 1,
-    "liveAddressProvince": "110000",
-    "liveAddressCity": "110100",
-    "liveAddressBorough": "110105",
-    "liveDetailAddress": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "monthIncome": 2,
-    "applicantClinicRelationship": 1,
-    "isDoctor": 1,
-    "professionalTitle": 3,
-    "position": 1,
-    "workingYear": 3,
-    "isLocalRigster": 0,
-    "livingYear": 3,
-    "isHavingOtherCompany": 0,
-    "otherCompanyNumber": 0,
-    "otherCompanyName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "personalEmail": "123@163.com",
-    "deliveryAddressProvince": "110000",
-    "deliveryAddressCity": "110100",
-    "deliveryAddressBorough": "110105",
-    "deliveryDetailAddress": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>收货地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "consigneeName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>收货联系人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "consigneePhone": "18833331111"
-  },
-  "contactInfo": {
-    "firstContactRelationship": 2,
-    "firstContactName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王二</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "firstContactCardNum": "420101197407188511",
-    "firstContactPhone": "13444442222",
-    "otherContactName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李四</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "otherContactRelationship": 5,
-    "otherContactPhone": "13333333333"
-  },
-  "bindingCardInfo": {
-    "bankCode": "34",
-    "bankNameSub": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建设银行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "bankCardNo": "6217002200003225701",
-    "bankCardAccountType": 0,
-    "bankPhone": "15022222222"
-  },
-  "entityInfo": {
-    "clinicName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>好不了牙科诊所</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "manageAddressProvince": "110000",
-    "manageAddressCity": "110100",
-    "manageAddressBorough": "110105",
-    "manageDetailAddress": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "openingDate": "2018-01-01",
-    "isChainInstitution": 0,
-    "chainInstitutionNumber": 1,
-    "annualRunningWater": 2000000.0,
-    "inspectionEquipment": 4,
-    "chairNumber": 10,
-    "doctorNumber": 3,
-    "operateSiteOwnership": 1,
-    "monthPatients": 50,
-    "annualPlantingNumber": 130,
-    "legalPersonName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "legalPersonPhone": "15822113399",
-    "legalPersonIdcard": "1298493210",
-    "enterpriseCertificateType": 1,
-    "enterpriseCertificateNum": "19391",
-    "unifiedSocialCreditCode": "9140003054",
-    "permitRegistrationNumber": "000000000000000000",
-    "consumeAmount": 3333.33,
-    "downPayment": 5555.55,
-    "clinicOriginalLevel": 1,
-    "clinicTradingLevel": 2,
-    "supplierOriginalLevel": 3,
-    "supplierTradingLevel": 4,
-    "supplierCompanyBadAccountRate": 3.33,
-    "supplierDepositLowestRate": 1.11,
-    "supplierLowestDepositPayment": 11111.00,
-    "supplierEstablishYears": 1,
-    "supplierProprietorRealCity": "110000",
-    "supplierProprietorRealCityLevel": 1,
-    "supplierAccessWay": 1,
-    "supplierLegalPersonName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>经销商法人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "supplierLegalPersonIdcard": "372301199509074811",
-    "supplierLegalPersonPhone": "15533330202",
-    "supplierName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>经销商名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-    "supplierUnifiedSocialCreditCode": "485919032"
-  },
-  "loanUsageInfo": {
-    "totalAmount": 200000.0,
-    "date": "2019-01-01",
-    "allProductNumber": 2,
-    "saleProductDetailList": [
-      {
-        "unitPriceAmount": 100000.0,
-        "productName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>123",
-        "singleProductNumber": 5
-      },
-      {
-        "unitPriceAmount": 200000.0,
-        "productName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>456",
-        "singleProductNumber": 3
-      }]
-  },
-  "imageInfo": {
-    "salesContractImage": "http://gss0.baidu.com/94o3dSag_xI4khGko9WTAnF6hhy/zhidao/pic/item/64380cd7912397dd712239dc5e82b2b7d1a2878b.jpg"
-  }
+    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applicationPeriod==0,loanInfo.loanTerm==2,loanInfo.cycleInterval==0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applyTerm==3,loanInfo.loanTerm==3,loanInfo.cycleInterval==0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applyTerm==2,applyInfo.applicationPeriod==0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applyTerm==3,applyInfo.applicationPeriod==0,loanInfo.loanTerm==3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"sourceUserId": "16471",
+	"transactionId": "Test5140123",
+	"sourceProjectId": "768523",
+	"applyInfo": {
+		"applyTime": "2020-08-04 14:58:11",
+		"applyAmount": 50000.0,
+		"applyTerm": 1,
+		"applicationPeriod": 60,
+		"productCode": "XJ_JFX_YYDSIN",
+		"applySource": "api",
+		"financeChannel": 1,
+		"productGroup": 1099
+	},
+	"loanInfo": {
+		"loanAmount": 50000.0,
+		"loanTerm": 1,
+		"cycleInterval": 60,
+		"assetInterestRate": 0.14,
+		"assetInterestRatePeriod": 1,
+		"userInterestRate": 0.14,
+		"userInterestRatePeriod": 1,
+		"repayMethod": "OT"
+	},
+	"cardInfo": {
+		"accountProp": 1,
+		"bankCode": 34,
+		"bankNameSub": "建设银行",
+		"bankCardNo": "6227002432220410613",
+		"bankCardAccountType": 0,
+		"bankPhone": 13500229191,
+		"openAccountProvince": "110000",
+		"openAccountCity": "110100",
+		"openAccountBankNameSub": "上地支行",
+		"corporateAccountName": "公司公户名称",
+		"unifiedSocialCreditCode": "713455588851967"
+	},
+	"personalInfo": {
+		"cardNum": "420101196801146980",
+		"custName": "凌禹佳",
+		"phone": "15514390545",
+		"education": 5,
+		"sex": "M",
+		"age": 25,
+		"maritalStatus": 2,
+		"hasChildren": 0,
+		"personalPurchaseHouse": 3,
+		"fourVerifyResult": 1,
+		"liveAddressProvince": "110000",
+		"liveAddressCity": "110100",
+		"liveAddressBorough": "110105",
+		"liveDetailAddress": "北京市",
+		"monthIncome": 2,
+		"applicantClinicRelationship": 1,
+		"isDoctor": 1,
+		"professionalTitle": 3,
+		"position": 1,
+		"workingYear": 3,
+		"isLocalRigster": 0,
+		"livingYear": 3,
+		"isHavingOtherCompany": 0,
+		"otherCompanyNumber": 0,
+		"otherCompanyName": "无",
+		"personalEmail": "123@163.com",
+		"deliveryAddressProvince": "110000",
+		"deliveryAddressCity": "110100",
+		"deliveryAddressBorough": "110105",
+		"deliveryDetailAddress": "收货地址",
+		"consigneeName": "收货联系人",
+		"consigneePhone": "18833331111"
+	},
+	"contactInfo": {
+		"firstContactRelationship": 2,
+		"firstContactName": "王二",
+		"firstContactCardNum": "420101197407188511",
+		"firstContactPhone": "13444442222",
+		"otherContactName": "李四",
+		"otherContactRelationship": 5,
+		"otherContactPhone": "13333333333"
+	},
+	"bindingCardInfo": {
+		"bankCode": "34",
+		"bankNameSub": "建设银行",
+		"bankCardNo": "6217002200003225701",
+		"bankCardAccountType": 0,
+		"bankPhone": "15022222222"
+	},
+	"entityInfo": {
+		"clinicName": "好不了牙科诊所",
+		"manageAddressProvince": "110000",
+		"manageAddressCity": "110100",
+		"manageAddressBorough": "110105",
+		"manageDetailAddress": "北京市",
+		"openingDate": "2018-01-01",
+		"isChainInstitution": 0,
+		"chainInstitutionNumber": 1,
+		"annualRunningWater": 2000000.0,
+		"inspectionEquipment": 4,
+		"chairNumber": 10,
+		"doctorNumber": 3,
+		"operateSiteOwnership": 1,
+		"monthPatients": 50,
+		"annualPlantingNumber": 130,
+		"legalPersonName": "张三",
+		"legalPersonPhone": "15822113399",
+		"legalPersonIdcard": "1298493210",
+		"enterpriseCertificateType": 1,
+		"enterpriseCertificateNum": "19391",
+		"unifiedSocialCreditCode": "9140003054",
+		"permitRegistrationNumber": "000000000000000000",
+		"consumeAmount": 3333.33,
+		"downPayment": 5555.55,
+		"clinicOriginalLevel": 1,
+		"clinicTradingLevel": 2,
+		"supplierOriginalLevel": 3,
+		"supplierTradingLevel": 4,
+		"supplierCompanyBadAccountRate": 3.33,
+		"supplierDepositLowestRate": 1.11,
+		"supplierLowestDepositPayment": 11111.00,
+		"supplierEstablishYears": 1,
+		"supplierProprietorRealCity": "110000",
+		"supplierProprietorRealCityLevel": 1,
+		"supplierAccessWay": 1,
+		"supplierLegalPersonName": "经销商法人",
+		"supplierLegalPersonIdcard": "372301199509074811",
+		"supplierLegalPersonPhone": "15533330202",
+		"supplierName": "经销商名称",
+		"supplierUnifiedSocialCreditCode": "485919032"
+	},
+	"loanUsageInfo": {
+		"totalAmount": 200000.0,
+		"date": "2019-01-01",
+		"allProductNumber": 2,
+		"saleProductDetailList": [{
+				"unitPriceAmount": 100000.0,
+				"productName": "产品名称123",
+				"singleProductNumber": 5
+			},
+			{
+				"unitPriceAmount": 200000.0,
+				"productName": "产品名称456",
+				"singleProductNumber": 3
+			}
+		]
+	},
+	"imageInfo": {
+		"salesContractImage": "http://gss0.baidu.com/94o3dSag_xI4khGko9WTAnF6hhy/zhidao/pic/item/64380cd7912397dd712239dc5e82b2b7d1a2878b.jpg"
+	}
 }</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applicationPeriod==0,loanInfo.loanTerm==2,loanInfo.cycleInterval==0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applyTerm==3,loanInfo.loanTerm==3,loanInfo.cycleInterval==0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applyTerm==2,applyInfo.applicationPeriod==0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyInfo.productCode==XJ_JFX_YYDMUL,applyInfo.applyTerm==3,applyInfo.applicationPeriod==0,loanInfo.loanTerm==3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -15793,7 +15204,7 @@
     </row>
     <row r="2" spans="1:6" ht="409.6">
       <c r="A2" s="27" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="3">
@@ -15806,12 +15217,12 @@
         <v>65</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19">
       <c r="A3" s="26" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="7">
@@ -15835,7 +15246,7 @@
     </row>
     <row r="5" spans="1:6" ht="19">
       <c r="A5" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="7">
@@ -15847,7 +15258,7 @@
     </row>
     <row r="6" spans="1:6" ht="19">
       <c r="A6" s="26" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="7">
@@ -15859,7 +15270,7 @@
     </row>
     <row r="7" spans="1:6" ht="19">
       <c r="A7" s="26" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="7">
@@ -15871,7 +15282,7 @@
     </row>
     <row r="8" spans="1:6" ht="19">
       <c r="A8" s="26" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="7">
@@ -16231,7 +15642,7 @@
     </row>
     <row r="38" spans="1:6" ht="19">
       <c r="A38" s="16" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="7">
@@ -16243,7 +15654,7 @@
     </row>
     <row r="39" spans="1:6" ht="19">
       <c r="A39" s="16" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="7">
@@ -16255,7 +15666,7 @@
     </row>
     <row r="40" spans="1:6" ht="19">
       <c r="A40" s="16" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="7">
@@ -16267,7 +15678,7 @@
     </row>
     <row r="41" spans="1:6" ht="19">
       <c r="A41" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="7">
@@ -16279,7 +15690,7 @@
     </row>
     <row r="42" spans="1:6" ht="19">
       <c r="A42" s="16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="7">
@@ -16291,7 +15702,7 @@
     </row>
     <row r="43" spans="1:6" ht="19">
       <c r="A43" s="16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="7">
@@ -16303,7 +15714,7 @@
     </row>
     <row r="44" spans="1:6" ht="19">
       <c r="A44" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="7">
@@ -16315,7 +15726,7 @@
     </row>
     <row r="45" spans="1:6" ht="19">
       <c r="A45" s="16" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="7">
@@ -16327,7 +15738,7 @@
     </row>
     <row r="46" spans="1:6" ht="19">
       <c r="A46" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="7">
@@ -16339,7 +15750,7 @@
     </row>
     <row r="47" spans="1:6" ht="19">
       <c r="A47" s="16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="7">
@@ -16351,7 +15762,7 @@
     </row>
     <row r="48" spans="1:6" ht="19">
       <c r="A48" s="16" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="7">
@@ -16363,7 +15774,7 @@
     </row>
     <row r="49" spans="1:6" ht="19">
       <c r="A49" s="16" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="7">
@@ -16375,7 +15786,7 @@
     </row>
     <row r="50" spans="1:6" ht="19">
       <c r="A50" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="7">
@@ -16387,7 +15798,7 @@
     </row>
     <row r="51" spans="1:6" ht="19">
       <c r="A51" s="16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="7">
@@ -16399,7 +15810,7 @@
     </row>
     <row r="52" spans="1:6" ht="19">
       <c r="A52" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="7">
@@ -16423,7 +15834,7 @@
     </row>
     <row r="54" spans="1:6" ht="19">
       <c r="A54" s="26" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="7">
@@ -16567,7 +15978,7 @@
     </row>
     <row r="66" spans="1:6" ht="19">
       <c r="A66" s="26" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="7">
@@ -16615,10 +16026,10 @@
     </row>
     <row r="70" spans="1:6" ht="20">
       <c r="A70" s="26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C70" s="7">
         <v>4000</v>
@@ -16629,10 +16040,10 @@
     </row>
     <row r="71" spans="1:6" ht="20">
       <c r="A71" s="26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C71" s="7">
         <v>4000</v>
@@ -16643,10 +16054,10 @@
     </row>
     <row r="72" spans="1:6" ht="40">
       <c r="A72" s="26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C72" s="7">
         <v>4000</v>
@@ -16657,10 +16068,10 @@
     </row>
     <row r="73" spans="1:6" ht="40">
       <c r="A73" s="26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C73" s="7">
         <v>4000</v>
@@ -16671,10 +16082,10 @@
     </row>
     <row r="74" spans="1:6" ht="40">
       <c r="A74" s="26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C74" s="7">
         <v>4000</v>
@@ -16685,10 +16096,10 @@
     </row>
     <row r="75" spans="1:6" ht="40">
       <c r="A75" s="26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C75" s="7">
         <v>4000</v>
@@ -16699,10 +16110,10 @@
     </row>
     <row r="76" spans="1:6" ht="40">
       <c r="A76" s="26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C76" s="7">
         <v>4000</v>
@@ -16713,10 +16124,10 @@
     </row>
     <row r="77" spans="1:6" ht="40">
       <c r="A77" s="26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C77" s="7">
         <v>4000</v>
@@ -16727,10 +16138,10 @@
     </row>
     <row r="78" spans="1:6" ht="40">
       <c r="A78" s="26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C78" s="7">
         <v>4000</v>
@@ -16741,10 +16152,10 @@
     </row>
     <row r="79" spans="1:6" ht="40">
       <c r="A79" s="26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C79" s="7">
         <v>4000</v>
@@ -16758,7 +16169,7 @@
         <v>85</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C80" s="7">
         <v>2000</v>
@@ -16772,7 +16183,7 @@
         <v>85</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C81" s="7">
         <v>2000</v>
@@ -16786,7 +16197,7 @@
         <v>85</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C82" s="7">
         <v>2000</v>
@@ -16800,7 +16211,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C83" s="7">
         <v>2000</v>
@@ -16811,10 +16222,10 @@
     </row>
     <row r="84" spans="1:6" ht="40">
       <c r="A84" s="26" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C84" s="7">
         <v>4000</v>
@@ -16825,10 +16236,10 @@
     </row>
     <row r="85" spans="1:6" ht="40">
       <c r="A85" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="B85" s="19" t="s">
         <v>305</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>311</v>
       </c>
       <c r="C85" s="7">
         <v>4000</v>
@@ -16842,7 +16253,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C86" s="7">
         <v>2000</v>
@@ -16856,7 +16267,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C87" s="7">
         <v>2000</v>
@@ -16870,7 +16281,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C88" s="7">
         <v>2000</v>
@@ -16884,7 +16295,7 @@
         <v>85</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C89" s="7">
         <v>2000</v>
@@ -16895,10 +16306,10 @@
     </row>
     <row r="90" spans="1:6" ht="20">
       <c r="A90" s="26" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C90" s="7">
         <v>4000</v>
@@ -16909,10 +16320,10 @@
     </row>
     <row r="91" spans="1:6" ht="20">
       <c r="A91" s="26" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C91" s="7">
         <v>4000</v>
@@ -16923,10 +16334,10 @@
     </row>
     <row r="92" spans="1:6" ht="40">
       <c r="A92" s="26" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C92" s="7">
         <v>4000</v>
@@ -16937,10 +16348,10 @@
     </row>
     <row r="93" spans="1:6" ht="40">
       <c r="A93" s="26" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C93" s="7">
         <v>4000</v>
@@ -16951,10 +16362,10 @@
     </row>
     <row r="94" spans="1:6" ht="40">
       <c r="A94" s="26" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C94" s="7">
         <v>2000</v>
@@ -16965,10 +16376,10 @@
     </row>
     <row r="95" spans="1:6" ht="40">
       <c r="A95" s="26" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C95" s="7">
         <v>2000</v>
@@ -16979,10 +16390,10 @@
     </row>
     <row r="96" spans="1:6" ht="40">
       <c r="A96" s="26" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C96" s="7">
         <v>2000</v>
@@ -16993,10 +16404,10 @@
     </row>
     <row r="97" spans="1:6" ht="40">
       <c r="A97" s="26" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C97" s="7">
         <v>2000</v>
@@ -17007,10 +16418,10 @@
     </row>
     <row r="98" spans="1:6" ht="40">
       <c r="A98" s="26" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C98" s="7">
         <v>2000</v>
@@ -17021,10 +16432,10 @@
     </row>
     <row r="99" spans="1:6" ht="40">
       <c r="A99" s="26" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C99" s="7">
         <v>2000</v>
@@ -17038,7 +16449,7 @@
         <v>86</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C100" s="7">
         <v>2000</v>
@@ -17052,7 +16463,7 @@
         <v>86</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C101" s="7">
         <v>2000</v>
@@ -17063,10 +16474,10 @@
     </row>
     <row r="102" spans="1:6" ht="40">
       <c r="A102" s="26" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C102" s="7">
         <v>4000</v>
@@ -17077,10 +16488,10 @@
     </row>
     <row r="103" spans="1:6" ht="40">
       <c r="A103" s="26" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C103" s="7">
         <v>4000</v>
@@ -17094,7 +16505,7 @@
         <v>86</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C104" s="7">
         <v>2000</v>
@@ -17108,7 +16519,7 @@
         <v>86</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C105" s="7">
         <v>2000</v>
@@ -17122,7 +16533,7 @@
         <v>86</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C106" s="7">
         <v>2000</v>
@@ -17136,7 +16547,7 @@
         <v>86</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C107" s="7">
         <v>2000</v>
@@ -17150,7 +16561,7 @@
         <v>86</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C108" s="7">
         <v>2000</v>
@@ -17164,7 +16575,7 @@
         <v>86</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C109" s="7">
         <v>2000</v>
@@ -17178,7 +16589,7 @@
         <v>87</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C110" s="7">
         <v>2000</v>
@@ -17192,7 +16603,7 @@
         <v>87</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C111" s="7">
         <v>2000</v>
@@ -17206,7 +16617,7 @@
         <v>87</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C112" s="7">
         <v>2000</v>
@@ -17220,7 +16631,7 @@
         <v>87</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C113" s="7">
         <v>2000</v>
@@ -17234,7 +16645,7 @@
         <v>87</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C114" s="7">
         <v>2000</v>
@@ -17248,7 +16659,7 @@
         <v>87</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C115" s="7">
         <v>2000</v>
@@ -17262,7 +16673,7 @@
         <v>87</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C116" s="7">
         <v>2000</v>
@@ -17276,7 +16687,7 @@
         <v>87</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C117" s="7">
         <v>2000</v>
@@ -17287,10 +16698,10 @@
     </row>
     <row r="118" spans="1:6" ht="40">
       <c r="A118" s="26" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C118" s="7">
         <v>4000</v>
@@ -17301,10 +16712,10 @@
     </row>
     <row r="119" spans="1:6" ht="40">
       <c r="A119" s="26" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C119" s="7">
         <v>4000</v>
@@ -17351,7 +16762,7 @@
     </row>
     <row r="123" spans="1:6" ht="19">
       <c r="A123" s="16" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="7">
@@ -17363,7 +16774,7 @@
     </row>
     <row r="124" spans="1:6" ht="19">
       <c r="A124" s="16" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="7">
@@ -17375,7 +16786,7 @@
     </row>
     <row r="125" spans="1:6" ht="19">
       <c r="A125" s="16" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B125" s="19"/>
       <c r="C125" s="7">
@@ -17387,7 +16798,7 @@
     </row>
     <row r="126" spans="1:6" ht="19">
       <c r="A126" s="16" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="7">
@@ -17399,7 +16810,7 @@
     </row>
     <row r="127" spans="1:6" ht="19">
       <c r="A127" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="7">
@@ -17411,7 +16822,7 @@
     </row>
     <row r="128" spans="1:6" ht="19">
       <c r="A128" s="16" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="7">
@@ -17423,7 +16834,7 @@
     </row>
     <row r="129" spans="1:6" ht="19">
       <c r="A129" s="16" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="7">
@@ -17435,7 +16846,7 @@
     </row>
     <row r="130" spans="1:6" ht="19">
       <c r="A130" s="16" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B130" s="19"/>
       <c r="C130" s="7">
@@ -17507,7 +16918,7 @@
     </row>
     <row r="136" spans="1:6" ht="19">
       <c r="A136" s="16" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B136" s="19"/>
       <c r="C136" s="7">
@@ -17567,7 +16978,7 @@
     </row>
     <row r="141" spans="1:6" ht="19">
       <c r="A141" s="16" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B141" s="19"/>
       <c r="C141" s="7">
@@ -17819,7 +17230,7 @@
     </row>
     <row r="162" spans="1:6" ht="19">
       <c r="A162" s="16" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B162" s="19"/>
       <c r="C162" s="7">
@@ -17831,7 +17242,7 @@
     </row>
     <row r="163" spans="1:6" ht="19">
       <c r="A163" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B163" s="19"/>
       <c r="C163" s="7">
@@ -17843,7 +17254,7 @@
     </row>
     <row r="164" spans="1:6" ht="19">
       <c r="A164" s="16" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B164" s="19"/>
       <c r="C164" s="7">
@@ -18107,7 +17518,7 @@
     </row>
     <row r="186" spans="1:6" ht="19">
       <c r="A186" s="16" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B186" s="19"/>
       <c r="C186" s="7">
@@ -18119,7 +17530,7 @@
     </row>
     <row r="187" spans="1:6" ht="19">
       <c r="A187" s="16" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B187" s="19"/>
       <c r="C187" s="7">
@@ -18191,7 +17602,7 @@
     </row>
     <row r="193" spans="1:6" ht="19">
       <c r="A193" s="16" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B193" s="19"/>
       <c r="C193" s="7">
@@ -18203,7 +17614,7 @@
     </row>
     <row r="194" spans="1:6" ht="19">
       <c r="A194" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B194" s="19"/>
       <c r="C194" s="7">
@@ -18215,7 +17626,7 @@
     </row>
     <row r="195" spans="1:6" ht="19">
       <c r="A195" s="16" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B195" s="19"/>
       <c r="C195" s="7">
@@ -18227,7 +17638,7 @@
     </row>
     <row r="196" spans="1:6" ht="19">
       <c r="A196" s="16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B196" s="19"/>
       <c r="C196" s="7">
@@ -18239,7 +17650,7 @@
     </row>
     <row r="197" spans="1:6" ht="19">
       <c r="A197" s="16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B197" s="19"/>
       <c r="C197" s="7">
@@ -18251,7 +17662,7 @@
     </row>
     <row r="198" spans="1:6" ht="19">
       <c r="A198" s="16" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B198" s="19"/>
       <c r="C198" s="7">
@@ -18263,7 +17674,7 @@
     </row>
     <row r="199" spans="1:6" ht="19">
       <c r="A199" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B199" s="19"/>
       <c r="C199" s="7">
@@ -18275,7 +17686,7 @@
     </row>
     <row r="200" spans="1:6" ht="19">
       <c r="A200" s="16" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B200" s="19"/>
       <c r="C200" s="7">
@@ -18287,7 +17698,7 @@
     </row>
     <row r="201" spans="1:6" ht="19">
       <c r="A201" s="16" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B201" s="19"/>
       <c r="C201" s="7">
@@ -18299,7 +17710,7 @@
     </row>
     <row r="202" spans="1:6" ht="19">
       <c r="A202" s="16" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B202" s="19"/>
       <c r="C202" s="7">
@@ -18311,7 +17722,7 @@
     </row>
     <row r="203" spans="1:6" ht="19">
       <c r="A203" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B203" s="19"/>
       <c r="C203" s="7">
@@ -18323,7 +17734,7 @@
     </row>
     <row r="204" spans="1:6" ht="19">
       <c r="A204" s="16" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B204" s="19"/>
       <c r="C204" s="7">
@@ -18335,7 +17746,7 @@
     </row>
     <row r="205" spans="1:6" ht="19">
       <c r="A205" s="16" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B205" s="19"/>
       <c r="C205" s="7">
@@ -18347,7 +17758,7 @@
     </row>
     <row r="206" spans="1:6" ht="19">
       <c r="A206" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B206" s="19"/>
       <c r="C206" s="7">
@@ -18359,7 +17770,7 @@
     </row>
     <row r="207" spans="1:6" ht="19">
       <c r="A207" s="16" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B207" s="19"/>
       <c r="C207" s="7">
@@ -18371,7 +17782,7 @@
     </row>
     <row r="208" spans="1:6" ht="19">
       <c r="A208" s="16" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B208" s="19"/>
       <c r="C208" s="7">
@@ -18383,7 +17794,7 @@
     </row>
     <row r="209" spans="1:6" ht="19">
       <c r="A209" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B209" s="19"/>
       <c r="C209" s="7">
@@ -18395,7 +17806,7 @@
     </row>
     <row r="210" spans="1:6" ht="19">
       <c r="A210" s="16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B210" s="19"/>
       <c r="C210" s="7">
@@ -18407,7 +17818,7 @@
     </row>
     <row r="211" spans="1:6" ht="19">
       <c r="A211" s="16" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B211" s="19"/>
       <c r="C211" s="7">
@@ -18419,7 +17830,7 @@
     </row>
     <row r="212" spans="1:6" ht="19">
       <c r="A212" s="16" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B212" s="19"/>
       <c r="C212" s="7">
@@ -20085,10 +19496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20135,7 +19546,7 @@
         <v>65</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
@@ -20158,7 +19569,7 @@
     </row>
     <row r="5" spans="1:6" ht="19">
       <c r="A5" s="22" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="3">
@@ -20167,7 +19578,7 @@
     </row>
     <row r="6" spans="1:6" ht="19">
       <c r="A6" s="22" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="3">
@@ -20176,7 +19587,7 @@
     </row>
     <row r="7" spans="1:6" ht="19">
       <c r="A7" s="22" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="3">
@@ -20203,10 +19614,10 @@
     </row>
     <row r="10" spans="1:6" ht="60">
       <c r="A10" s="22" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C10" s="3">
         <v>4000</v>
@@ -20214,10 +19625,10 @@
     </row>
     <row r="11" spans="1:6" ht="60">
       <c r="A11" s="22" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C11" s="3">
         <v>4000</v>
@@ -20225,7 +19636,7 @@
     </row>
     <row r="12" spans="1:6" ht="19">
       <c r="A12" s="22" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="3">
@@ -20234,7 +19645,7 @@
     </row>
     <row r="13" spans="1:6" ht="19">
       <c r="A13" s="22" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="3">
@@ -20243,7 +19654,7 @@
     </row>
     <row r="14" spans="1:6" ht="19">
       <c r="A14" s="22" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="3">
@@ -20324,10 +19735,10 @@
     </row>
     <row r="23" spans="1:3" ht="60">
       <c r="A23" s="22" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C23" s="3">
         <v>4000</v>
@@ -20335,10 +19746,10 @@
     </row>
     <row r="24" spans="1:3" ht="60">
       <c r="A24" s="22" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C24" s="3">
         <v>4000</v>
@@ -20346,7 +19757,7 @@
     </row>
     <row r="25" spans="1:3" ht="19">
       <c r="A25" s="22" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="3">
@@ -20355,7 +19766,7 @@
     </row>
     <row r="26" spans="1:3" ht="19">
       <c r="A26" s="22" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="3">
@@ -20364,7 +19775,7 @@
     </row>
     <row r="27" spans="1:3" ht="19">
       <c r="A27" s="22" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="3">
@@ -20373,7 +19784,7 @@
     </row>
     <row r="28" spans="1:3" ht="19">
       <c r="A28" s="22" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="3">
@@ -20499,7 +19910,7 @@
     </row>
     <row r="42" spans="1:3" ht="19">
       <c r="A42" s="22" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="3">
@@ -20796,7 +20207,7 @@
     </row>
     <row r="75" spans="1:3" ht="19">
       <c r="A75" s="22" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="3">
@@ -20805,7 +20216,7 @@
     </row>
     <row r="76" spans="1:3" ht="19">
       <c r="A76" s="22" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="3">
@@ -20814,7 +20225,7 @@
     </row>
     <row r="77" spans="1:3" ht="19">
       <c r="A77" s="22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="3">
@@ -20823,7 +20234,7 @@
     </row>
     <row r="78" spans="1:3" ht="19">
       <c r="A78" s="22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="3">
@@ -20832,7 +20243,7 @@
     </row>
     <row r="79" spans="1:3" ht="19">
       <c r="A79" s="22" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="3">
@@ -20841,7 +20252,7 @@
     </row>
     <row r="80" spans="1:3" ht="19">
       <c r="A80" s="22" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="3">
@@ -20850,7 +20261,7 @@
     </row>
     <row r="81" spans="1:3" ht="19">
       <c r="A81" s="22" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B81" s="18"/>
       <c r="C81" s="3">
@@ -20859,7 +20270,7 @@
     </row>
     <row r="82" spans="1:3" ht="19">
       <c r="A82" s="22" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="3">
@@ -20868,7 +20279,7 @@
     </row>
     <row r="83" spans="1:3" ht="19">
       <c r="A83" s="22" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B83" s="18"/>
       <c r="C83" s="3">
@@ -20877,7 +20288,7 @@
     </row>
     <row r="84" spans="1:3" ht="19">
       <c r="A84" s="22" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="3">
@@ -20886,7 +20297,7 @@
     </row>
     <row r="85" spans="1:3" ht="19">
       <c r="A85" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="3">
@@ -20895,7 +20306,7 @@
     </row>
     <row r="86" spans="1:3" ht="19">
       <c r="A86" s="22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B86" s="18"/>
       <c r="C86" s="3">
@@ -20904,7 +20315,7 @@
     </row>
     <row r="87" spans="1:3" ht="19">
       <c r="A87" s="22" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="3">
@@ -20913,7 +20324,7 @@
     </row>
     <row r="88" spans="1:3" ht="19">
       <c r="A88" s="22" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="3">
@@ -20922,7 +20333,7 @@
     </row>
     <row r="89" spans="1:3" ht="19">
       <c r="A89" s="22" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B89" s="18"/>
       <c r="C89" s="3">
@@ -20931,7 +20342,7 @@
     </row>
     <row r="90" spans="1:3" ht="19">
       <c r="A90" s="22" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B90" s="18"/>
       <c r="C90" s="3">
@@ -20940,7 +20351,7 @@
     </row>
     <row r="91" spans="1:3" ht="19">
       <c r="A91" s="22" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B91" s="18"/>
       <c r="C91" s="3">
@@ -20949,7 +20360,7 @@
     </row>
     <row r="92" spans="1:3" ht="19">
       <c r="A92" s="22" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B92" s="18"/>
       <c r="C92" s="3">
@@ -20958,7 +20369,7 @@
     </row>
     <row r="93" spans="1:3" ht="19">
       <c r="A93" s="22" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B93" s="18"/>
       <c r="C93" s="3">
@@ -20967,7 +20378,7 @@
     </row>
     <row r="94" spans="1:3" ht="19">
       <c r="A94" s="22" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="3">
@@ -20976,7 +20387,7 @@
     </row>
     <row r="95" spans="1:3" ht="19">
       <c r="A95" s="22" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="3">
@@ -21304,7 +20715,7 @@
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="25">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="19">
@@ -21313,7 +20724,7 @@
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="25">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="19">
@@ -21322,12 +20733,12 @@
       </c>
       <c r="B133" s="24"/>
       <c r="C133" s="25">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="19">
       <c r="A134" s="23" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="25">
@@ -21336,7 +20747,7 @@
     </row>
     <row r="135" spans="1:3" ht="19">
       <c r="A135" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B135" s="24"/>
       <c r="C135" s="25">
@@ -21345,7 +20756,7 @@
     </row>
     <row r="136" spans="1:3" ht="19">
       <c r="A136" s="23" t="s">
-        <v>229</v>
+        <v>354</v>
       </c>
       <c r="B136" s="24"/>
       <c r="C136" s="25">
@@ -21354,34 +20765,34 @@
     </row>
     <row r="137" spans="1:3" ht="19">
       <c r="A137" s="23" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="25">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="19">
       <c r="A138" s="23" t="s">
-        <v>231</v>
+        <v>356</v>
       </c>
       <c r="B138" s="24"/>
       <c r="C138" s="25">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="19">
       <c r="A139" s="23" t="s">
-        <v>232</v>
+        <v>357</v>
       </c>
       <c r="B139" s="24"/>
       <c r="C139" s="25">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="19">
       <c r="A140" s="23" t="s">
-        <v>158</v>
+        <v>358</v>
       </c>
       <c r="B140" s="24"/>
       <c r="C140" s="25">
@@ -21390,7 +20801,7 @@
     </row>
     <row r="141" spans="1:3" ht="19">
       <c r="A141" s="23" t="s">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="B141" s="24"/>
       <c r="C141" s="25">
@@ -21451,126 +20862,126 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="19">
-      <c r="A148" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="B148" s="24"/>
-      <c r="C148" s="25">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="19">
-      <c r="A149" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="B149" s="24"/>
-      <c r="C149" s="25">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="19">
-      <c r="A150" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="B150" s="24"/>
-      <c r="C150" s="25">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="19">
-      <c r="A151" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="B151" s="24"/>
-      <c r="C151" s="25">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="19">
-      <c r="A152" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="B152" s="24"/>
-      <c r="C152" s="25">
+    <row r="148" spans="1:3" ht="20">
+      <c r="A148" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B148" s="19"/>
+      <c r="C148" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="20">
+      <c r="A149" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B149" s="19"/>
+      <c r="C149" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="20">
+      <c r="A150" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" s="19"/>
+      <c r="C150" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="20">
+      <c r="A151" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B151" s="19"/>
+      <c r="C151" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="20">
+      <c r="A152" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B152" s="19"/>
+      <c r="C152" s="7">
         <v>4000</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="19">
-      <c r="A153" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="B153" s="24"/>
-      <c r="C153" s="25">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="20">
-      <c r="A154" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B154" s="19"/>
-      <c r="C154" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="20">
-      <c r="A155" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B155" s="19"/>
-      <c r="C155" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="20">
-      <c r="A156" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B156" s="19"/>
-      <c r="C156" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="20">
-      <c r="A157" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B157" s="19"/>
-      <c r="C157" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="20">
-      <c r="A158" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B158" s="19"/>
-      <c r="C158" s="7">
-        <v>4000</v>
+      <c r="A153" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B153" s="19"/>
+      <c r="C153" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="19">
+      <c r="A154" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B154" s="18"/>
+      <c r="C154" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="19">
+      <c r="A155" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B155" s="18"/>
+      <c r="C155" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="19">
+      <c r="A156" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B156" s="18"/>
+      <c r="C156" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="19">
+      <c r="A157" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B157" s="18"/>
+      <c r="C157" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="19">
+      <c r="A158" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B158" s="18"/>
+      <c r="C158" s="3">
+        <v>2000</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="19">
-      <c r="A159" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="B159" s="19"/>
-      <c r="C159" s="7">
+      <c r="A159" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B159" s="18"/>
+      <c r="C159" s="3">
         <v>4000</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="19">
       <c r="A160" s="22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B160" s="18"/>
       <c r="C160" s="3">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="19">
       <c r="A161" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B161" s="18"/>
       <c r="C161" s="3">
@@ -21579,142 +20990,142 @@
     </row>
     <row r="162" spans="1:3" ht="19">
       <c r="A162" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B162" s="18"/>
       <c r="C162" s="3">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="19">
       <c r="A163" s="22" t="s">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="B163" s="18"/>
       <c r="C163" s="3">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="19">
       <c r="A164" s="22" t="s">
-        <v>249</v>
+        <v>352</v>
       </c>
       <c r="B164" s="18"/>
       <c r="C164" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="19">
+      <c r="A165" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B165" s="19"/>
+      <c r="C165" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="19">
+      <c r="A166" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B166" s="19"/>
+      <c r="C166" s="7">
         <v>2000</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="19">
-      <c r="A165" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="B165" s="18"/>
-      <c r="C165" s="3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="19">
-      <c r="A166" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="B166" s="18"/>
-      <c r="C166" s="3">
-        <v>4000</v>
-      </c>
-    </row>
     <row r="167" spans="1:3" ht="19">
-      <c r="A167" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="B167" s="18"/>
-      <c r="C167" s="3">
+      <c r="A167" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B167" s="19"/>
+      <c r="C167" s="7">
         <v>2000</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="19">
-      <c r="A168" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="B168" s="18"/>
-      <c r="C168" s="3">
+      <c r="A168" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="B168" s="19"/>
+      <c r="C168" s="7">
         <v>4000</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="19">
-      <c r="A169" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="B169" s="18"/>
-      <c r="C169" s="3">
+      <c r="A169" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B169" s="19"/>
+      <c r="C169" s="7">
         <v>4000</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="19">
-      <c r="A170" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="B170" s="18"/>
-      <c r="C170" s="3">
+      <c r="A170" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B170" s="19"/>
+      <c r="C170" s="7">
         <v>4000</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="19">
       <c r="A171" s="16" t="s">
-        <v>234</v>
+        <v>370</v>
       </c>
       <c r="B171" s="19"/>
       <c r="C171" s="7">
         <v>4000</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="19">
+    <row r="172" spans="1:3" ht="20">
       <c r="A172" s="16" t="s">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="B172" s="19"/>
       <c r="C172" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="20">
       <c r="A173" s="16" t="s">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="B173" s="19"/>
       <c r="C173" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="20">
       <c r="A174" s="16" t="s">
-        <v>373</v>
+        <v>60</v>
       </c>
       <c r="B174" s="19"/>
       <c r="C174" s="7">
         <v>4000</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="19">
+    <row r="175" spans="1:3" ht="20">
       <c r="A175" s="16" t="s">
-        <v>374</v>
+        <v>61</v>
       </c>
       <c r="B175" s="19"/>
       <c r="C175" s="7">
         <v>4000</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="19">
+    <row r="176" spans="1:3" ht="20">
       <c r="A176" s="16" t="s">
-        <v>375</v>
+        <v>62</v>
       </c>
       <c r="B176" s="19"/>
       <c r="C176" s="7">
         <v>4000</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="19">
+    <row r="177" spans="1:3" ht="20">
       <c r="A177" s="16" t="s">
-        <v>376</v>
+        <v>63</v>
       </c>
       <c r="B177" s="19"/>
       <c r="C177" s="7">
@@ -21723,82 +21134,28 @@
     </row>
     <row r="178" spans="1:3" ht="20">
       <c r="A178" s="16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B178" s="19"/>
       <c r="C178" s="7">
         <v>4000</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="20">
+    <row r="179" spans="1:3" ht="19">
       <c r="A179" s="16" t="s">
-        <v>59</v>
+        <v>241</v>
       </c>
       <c r="B179" s="19"/>
       <c r="C179" s="7">
         <v>4000</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="20">
+    <row r="180" spans="1:3" ht="19">
       <c r="A180" s="16" t="s">
-        <v>60</v>
+        <v>366</v>
       </c>
       <c r="B180" s="19"/>
       <c r="C180" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="20">
-      <c r="A181" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B181" s="19"/>
-      <c r="C181" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="20">
-      <c r="A182" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B182" s="19"/>
-      <c r="C182" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="20">
-      <c r="A183" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B183" s="19"/>
-      <c r="C183" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="20">
-      <c r="A184" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B184" s="19"/>
-      <c r="C184" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="19">
-      <c r="A185" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B185" s="19"/>
-      <c r="C185" s="7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="19">
-      <c r="A186" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B186" s="19"/>
-      <c r="C186" s="7">
         <v>4000</v>
       </c>
     </row>

--- a/data/jfx_required_test.xlsx
+++ b/data/jfx_required_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7D0314-E441-6744-B67A-420766035F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09780EA7-678A-2941-9ADC-0C24657EDE87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="500" windowWidth="24660" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12773,47 +12773,6 @@
         <family val="1"/>
       </rPr>
       <t>entityInfo.operateSiteOwnership==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.chainInstitutionNumber==3</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -13559,6 +13518,47 @@
 		"salesContractImage": "http://gss0.baidu.com/94o3dSag_xI4khGko9WTAnF6hhy/zhidao/pic/item/64380cd7912397dd712239dc5e82b2b7d1a2878b.jpg"
 	}
 }</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.chainInstitutionNumber==4</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -19498,8 +19498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -19546,7 +19546,7 @@
         <v>65</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
@@ -19617,7 +19617,7 @@
         <v>315</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C10" s="3">
         <v>4000</v>
@@ -19628,7 +19628,7 @@
         <v>323</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C11" s="3">
         <v>4000</v>
@@ -19738,7 +19738,7 @@
         <v>322</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C23" s="3">
         <v>4000</v>
@@ -19749,7 +19749,7 @@
         <v>324</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C24" s="3">
         <v>4000</v>
@@ -20774,7 +20774,7 @@
     </row>
     <row r="138" spans="1:3" ht="19">
       <c r="A138" s="23" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="B138" s="24"/>
       <c r="C138" s="25">
@@ -20783,7 +20783,7 @@
     </row>
     <row r="139" spans="1:3" ht="19">
       <c r="A139" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B139" s="24"/>
       <c r="C139" s="25">
@@ -20792,7 +20792,7 @@
     </row>
     <row r="140" spans="1:3" ht="19">
       <c r="A140" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B140" s="24"/>
       <c r="C140" s="25">
@@ -20801,7 +20801,7 @@
     </row>
     <row r="141" spans="1:3" ht="19">
       <c r="A141" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B141" s="24"/>
       <c r="C141" s="25">
@@ -20810,7 +20810,7 @@
     </row>
     <row r="142" spans="1:3" ht="19">
       <c r="A142" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B142" s="24"/>
       <c r="C142" s="25">
@@ -20819,7 +20819,7 @@
     </row>
     <row r="143" spans="1:3" ht="19">
       <c r="A143" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B143" s="24"/>
       <c r="C143" s="25">
@@ -20828,7 +20828,7 @@
     </row>
     <row r="144" spans="1:3" ht="19">
       <c r="A144" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B144" s="24"/>
       <c r="C144" s="25">
@@ -20837,7 +20837,7 @@
     </row>
     <row r="145" spans="1:3" ht="19">
       <c r="A145" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B145" s="24"/>
       <c r="C145" s="25">
@@ -20846,7 +20846,7 @@
     </row>
     <row r="146" spans="1:3" ht="19">
       <c r="A146" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B146" s="24"/>
       <c r="C146" s="25">
@@ -20855,7 +20855,7 @@
     </row>
     <row r="147" spans="1:3" ht="19">
       <c r="A147" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B147" s="24"/>
       <c r="C147" s="25">
@@ -21044,7 +21044,7 @@
     </row>
     <row r="168" spans="1:3" ht="19">
       <c r="A168" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B168" s="19"/>
       <c r="C168" s="7">
@@ -21053,7 +21053,7 @@
     </row>
     <row r="169" spans="1:3" ht="19">
       <c r="A169" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B169" s="19"/>
       <c r="C169" s="7">
@@ -21062,7 +21062,7 @@
     </row>
     <row r="170" spans="1:3" ht="19">
       <c r="A170" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B170" s="19"/>
       <c r="C170" s="7">
@@ -21071,7 +21071,7 @@
     </row>
     <row r="171" spans="1:3" ht="19">
       <c r="A171" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B171" s="19"/>
       <c r="C171" s="7">
@@ -21152,7 +21152,7 @@
     </row>
     <row r="180" spans="1:3" ht="19">
       <c r="A180" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B180" s="19"/>
       <c r="C180" s="7">

--- a/data/jfx_required_test.xlsx
+++ b/data/jfx_required_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09780EA7-678A-2941-9ADC-0C24657EDE87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853398A-F88C-9141-9BCB-384665B1720B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="500" windowWidth="24660" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19498,8 +19498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
